--- a/data/others/annual_predictions_iff_shw_dov.xlsx
+++ b/data/others/annual_predictions_iff_shw_dov.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -635,7 +635,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -850,7 +850,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E150" t="n">
